--- a/daily_report/系统运行报告小结_20190611.xlsx
+++ b/daily_report/系统运行报告小结_20190611.xlsx
@@ -139,16 +139,22 @@
     <t>直播星现场支持</t>
   </si>
   <si>
-    <t>户户通(P1/P3)用户数:       101,308,579
-户户通(P1/P3)智能卡总量:    103,914,859</t>
-  </si>
-  <si>
-    <t>户户通(P3/P4/P5)用户数:     23,030,947
-户户通(P3/P4/P5)智能卡总量:  25,208,188</t>
-  </si>
-  <si>
-    <t>村村通用户数:              16,564,975
-村村通智能卡总量:         18,704,820</t>
+    <t xml:space="preserve">
+户户通(P1/P3)用户数:       101,308,579
+户户通(P1/P3)智能卡总量:    103,914,859
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+户户通(P3/P4/P5)用户数:     23,030,947
+户户通(P3/P4/P5)智能卡总量:  25,208,188
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+村村通用户数:              16,564,975
+村村通智能卡总量:         18,704,820
+</t>
   </si>
   <si>
     <t>户户通(P1/P3): (可用带宽1000kbps)
@@ -210,16 +216,22 @@
     <t>周二</t>
   </si>
   <si>
-    <t>户户通(P1/P3)用户数:       101,310,728
-户户通(P1/P3)智能卡总量:    103,914,859</t>
-  </si>
-  <si>
-    <t>户户通(P3/P4/P5)用户数:     23,057,470
-户户通(P3/P4/P5)智能卡总量:  25,208,188</t>
-  </si>
-  <si>
-    <t>村村通用户数:              16,564,978
-村村通智能卡总量:         18,704,820</t>
+    <t xml:space="preserve">
+户户通(P1/P3)用户数:       101,310,728
+户户通(P1/P3)智能卡总量:    103,914,859
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+户户通(P3/P4/P5)用户数:     23,057,470
+户户通(P3/P4/P5)智能卡总量:  25,208,188
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+村村通用户数:              16,564,978
+村村通智能卡总量:         18,704,820
+</t>
   </si>
   <si>
     <t>户户通(P1/P3): (可用带宽1000kbps)
@@ -296,13 +308,13 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="华文仿宋"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="华文仿宋"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
     <font>
@@ -315,7 +327,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="华文仿宋"/>
+      <name val="宋体"/>
       <family val="2"/>
     </font>
   </fonts>
